--- a/fhir/ig/tei/0.2.1/CodeSystem-CSEspecialidadOdont.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-CSEspecialidadOdont.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>Property</t>
   </si>
@@ -556,7 +556,9 @@
       <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -568,7 +570,9 @@
       <c r="C3" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
@@ -580,7 +584,9 @@
       <c r="C4" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
@@ -592,7 +598,9 @@
       <c r="C5" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -604,7 +612,9 @@
       <c r="C6" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
@@ -616,7 +626,9 @@
       <c r="C7" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
@@ -628,7 +640,9 @@
       <c r="C8" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
@@ -640,7 +654,9 @@
       <c r="C9" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
@@ -652,7 +668,9 @@
       <c r="C10" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
@@ -664,7 +682,9 @@
       <c r="C11" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
@@ -676,7 +696,9 @@
       <c r="C12" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
@@ -688,7 +710,9 @@
       <c r="C13" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -700,7 +724,9 @@
       <c r="C14" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -712,7 +738,9 @@
       <c r="C15" t="s" s="2">
         <v>66</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/fhir/ig/tei/0.2.1/CodeSystem-CSEspecialidadOdont.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-CSEspecialidadOdont.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>Property</t>
   </si>
@@ -120,100 +120,112 @@
     <t>Count</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Cirugía y Traumatología Buco Maxilofacial</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Cirugía Bucal</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Endodoncia</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Imagenología Oral y Maxilofacial</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Implantología Buco Maxilofacial</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Odontología legal</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Odontopediatría</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Ortodoncia y Ortopedia Dento Máxilo Facial</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Patología Oral Maxilofacial</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Periodoncia</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Rehabilitación Oral Removible</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Salud Pública</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Somato-Prótesis</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Cirugía y Traumatología Buco Maxilofacial</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Cirugía Bucal</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Endodoncia</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Imagenología Oral y Maxilofacial</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Implantología Buco Maxilofacial</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Odontología legal</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Odontopediatría</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Ortodoncia y Ortopedia Dento Máxilo Facial</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Patología Oral</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Periodoncia</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Rehabilitación Oral</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Salud Pública</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Somato-Prótesis</t>
-  </si>
-  <si>
     <t>Trastornos Temporomandibulares Y Dolor Orofacial</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Odontogeriatría</t>
+  </si>
+  <si>
+    <t>Rehabilitación Oral Fija</t>
   </si>
 </sst>
 </file>
@@ -526,7 +538,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -733,13 +745,41 @@
         <v>40</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>66</v>
+      <c r="C17" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
